--- a/src/Files/ExcelModel/LowFlowModel.xlsx
+++ b/src/Files/ExcelModel/LowFlowModel.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="source" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -435,16 +435,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -737,18 +734,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,199 +760,194 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -964,9 +957,8 @@
       <c r="C18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -976,9 +968,8 @@
       <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -988,9 +979,8 @@
       <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1000,9 +990,8 @@
       <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1012,9 +1001,8 @@
       <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1024,9 +1012,8 @@
       <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1036,9 +1023,8 @@
       <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1048,9 +1034,8 @@
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1060,9 +1045,8 @@
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1072,9 +1056,8 @@
       <c r="C27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,9 +1067,8 @@
       <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1096,9 +1078,8 @@
       <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1108,9 +1089,8 @@
       <c r="C30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1120,9 +1100,8 @@
       <c r="C31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1132,9 +1111,8 @@
       <c r="C32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1144,9 +1122,8 @@
       <c r="C33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1156,9 +1133,8 @@
       <c r="C34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1168,9 +1144,8 @@
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1180,9 +1155,8 @@
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1192,9 +1166,8 @@
       <c r="C37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1204,9 +1177,8 @@
       <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1216,9 +1188,8 @@
       <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1228,9 +1199,8 @@
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1240,9 +1210,8 @@
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -1252,9 +1221,8 @@
       <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1264,9 +1232,8 @@
       <c r="C43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1276,7 +1243,6 @@
       <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/Files/ExcelModel/LowFlowModel.xlsx
+++ b/src/Files/ExcelModel/LowFlowModel.xlsx
@@ -435,13 +435,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -735,15 +738,14 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="12.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -767,10 +769,10 @@
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -779,10 +781,10 @@
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -791,10 +793,10 @@
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -803,10 +805,10 @@
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -815,10 +817,10 @@
       <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -827,10 +829,10 @@
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -839,10 +841,10 @@
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -851,10 +853,10 @@
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -863,10 +865,10 @@
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -875,10 +877,10 @@
       <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -887,10 +889,10 @@
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -899,9 +901,10 @@
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -910,9 +913,10 @@
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -921,9 +925,10 @@
       <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -932,22 +937,24 @@
       <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -957,8 +964,9 @@
       <c r="C18" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -968,8 +976,9 @@
       <c r="C19" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -979,8 +988,9 @@
       <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -990,8 +1000,9 @@
       <c r="C21" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1001,8 +1012,9 @@
       <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1012,8 +1024,9 @@
       <c r="C23" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1023,8 +1036,9 @@
       <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1034,8 +1048,9 @@
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1045,8 +1060,9 @@
       <c r="C26" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -1056,8 +1072,9 @@
       <c r="C27" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1067,8 +1084,9 @@
       <c r="C28" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -1078,8 +1096,9 @@
       <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1089,8 +1108,9 @@
       <c r="C30" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1100,8 +1120,9 @@
       <c r="C31" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1111,8 +1132,9 @@
       <c r="C32" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1122,8 +1144,9 @@
       <c r="C33" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1133,8 +1156,9 @@
       <c r="C34" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1144,8 +1168,9 @@
       <c r="C35" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1155,8 +1180,9 @@
       <c r="C36" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1166,8 +1192,9 @@
       <c r="C37" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1177,8 +1204,9 @@
       <c r="C38" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1188,8 +1216,9 @@
       <c r="C39" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1199,8 +1228,9 @@
       <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1210,8 +1240,9 @@
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -1221,8 +1252,9 @@
       <c r="C42" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -1232,8 +1264,9 @@
       <c r="C43" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -1243,6 +1276,7 @@
       <c r="C44" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="D44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
